--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>708810.5872778659</v>
+        <v>728644.9603906235</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365224</v>
+        <v>606553.2040797151</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7061325.850336523</v>
+        <v>7621917.551341188</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>350.0231807050494</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -671,7 +673,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>313.8549798215686</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -865,22 +867,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>54.66258501924847</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>99.28616603324218</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,13 +898,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>230.6546619376977</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>243.9738871485494</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.45405731752604</v>
+        <v>145.8285166974204</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1060,10 +1062,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1072,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>160.9917703005311</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>243.561265669418</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>46.22530271040155</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>237.5313982550653</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>393.0904050431981</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -1388,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1582,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.42894579208335</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>39.42612841866368</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>92.21956428898119</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1819,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.42894579208335</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2014,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2087,7 +2089,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
@@ -2135,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2257,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U22" t="n">
-        <v>240.9739924675</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>22.28534392847676</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830552</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>24.34318456170566</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>129.7139627068463</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3010,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3199,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3433,10 +3435,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3670,13 +3672,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3718,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>142.4359347523201</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3749,16 +3751,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>119.7254844869146</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>175.0349193669826</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480023404</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>131.9969996527475</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3986,16 +3988,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>261.9299941770004</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>214.2110656465758</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>10.0402736571996</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>900.0073012899564</v>
+        <v>489.9592645846402</v>
       </c>
       <c r="C2" t="n">
-        <v>461.8648284733798</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D2" t="n">
-        <v>108.3060600844409</v>
+        <v>423.9878150233161</v>
       </c>
       <c r="E2" t="n">
-        <v>78.57171928314017</v>
+        <v>394.2534742220153</v>
       </c>
       <c r="F2" t="n">
-        <v>54.74469373275195</v>
+        <v>370.4264486716271</v>
       </c>
       <c r="G2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L2" t="n">
-        <v>1167.464966128475</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M2" t="n">
-        <v>1167.464966128475</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N2" t="n">
-        <v>1167.464966128475</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2517.167459510636</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>2517.167459510636</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V2" t="n">
-        <v>2154.550509444463</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W2" t="n">
-        <v>1749.695054855496</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X2" t="n">
-        <v>1330.552591434807</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y2" t="n">
-        <v>922.2664677344602</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1580.166670150082</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1473.710208986724</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.619920133277</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1284.499505460231</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1201.115667076393</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1115.730577342577</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1073.994925158789</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1100.058598319247</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>1100.058598319247</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K3" t="n">
-        <v>1401.857384968378</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L3" t="n">
-        <v>1401.857384968378</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="M3" t="n">
-        <v>1401.857384968378</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="N3" t="n">
-        <v>1401.857384968378</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="O3" t="n">
-        <v>1401.857384968378</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="P3" t="n">
-        <v>2079.322969911183</v>
+        <v>1699.639650578398</v>
       </c>
       <c r="Q3" t="n">
-        <v>2620.061908543259</v>
+        <v>1699.639650578398</v>
       </c>
       <c r="R3" t="n">
-        <v>2737.234686637598</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2673.779249085981</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2543.600605416583</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2367.264058416551</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2168.14654047855</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1982.823786211744</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1827.956350450624</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1701.470571229845</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1199.63323734668</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>1027.071525829905</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>861.1935330314275</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>691.4355292821647</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>514.7284752439209</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>349.1372002697486</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>209.2350259601232</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>120.5750767347985</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>207.1547618994884</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>481.9132164706239</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>900.123098238585</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1359.606965419498</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1801.865768577142</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2221.535017802924</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2569.041911773266</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2715.81686534297</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2715.81686534297</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2469.937418921425</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="U4" t="n">
-        <v>2191.50441817453</v>
+        <v>2210.968635687901</v>
       </c>
       <c r="V4" t="n">
-        <v>2136.289685831855</v>
+        <v>1924.013127558332</v>
       </c>
       <c r="W4" t="n">
-        <v>1864.263281418146</v>
+        <v>1651.986723144624</v>
       </c>
       <c r="X4" t="n">
-        <v>1618.871526751559</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1391.451856065667</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>373.1599478773678</v>
+        <v>389.6379614873604</v>
       </c>
       <c r="C5" t="n">
-        <v>140.1754408695924</v>
+        <v>355.5358927111877</v>
       </c>
       <c r="D5" t="n">
-        <v>108.3060600844409</v>
+        <v>323.6665119260363</v>
       </c>
       <c r="E5" t="n">
-        <v>78.57171928314017</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>489.9993811856698</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>489.9993811856698</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>1167.464966128475</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>1844.930551071281</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>2522.396136014086</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>2522.396136014086</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2522.396136014086</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2653.582812821435</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2653.582812821435</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2394.360510138452</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>2031.743560072278</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>1626.888105483312</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X5" t="n">
-        <v>1207.745642062622</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y5" t="n">
-        <v>799.4595183622756</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>379.3030186989643</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K6" t="n">
-        <v>1056.76860364177</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="L6" t="n">
-        <v>1056.76860364177</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="M6" t="n">
-        <v>1056.76860364177</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="N6" t="n">
-        <v>1056.76860364177</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="O6" t="n">
-        <v>1056.76860364177</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="P6" t="n">
-        <v>1177.245516579485</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q6" t="n">
-        <v>1717.984455211561</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1045.142905119309</v>
+        <v>785.9943193530034</v>
       </c>
       <c r="C7" t="n">
-        <v>872.5811936025335</v>
+        <v>613.4326078362284</v>
       </c>
       <c r="D7" t="n">
-        <v>706.7032008040562</v>
+        <v>447.554615037751</v>
       </c>
       <c r="E7" t="n">
-        <v>536.9451970547935</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F7" t="n">
-        <v>360.2381430165498</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>194.6468680423774</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2671.404303635552</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2425.524857214007</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2147.091856467112</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1860.136348337543</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1588.109943923834</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1342.718189257247</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1115.298518571355</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2191.836957184118</v>
+        <v>793.6783655277644</v>
       </c>
       <c r="C8" t="n">
-        <v>1753.694484367541</v>
+        <v>759.5762967515918</v>
       </c>
       <c r="D8" t="n">
-        <v>1317.784699541985</v>
+        <v>727.7069159664404</v>
       </c>
       <c r="E8" t="n">
-        <v>884.0099547002803</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>456.1425251094881</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1167.464966128475</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1213.149451998931</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1213.149451998931</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1213.149451998931</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1890.615036941736</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>2568.080621884541</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>2374.617736571424</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>2373.802686022862</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X8" t="n">
-        <v>2358.700626642576</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y8" t="n">
-        <v>2354.454906982634</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>54.74469373275195</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>54.74469373275195</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K9" t="n">
-        <v>54.74469373275195</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L9" t="n">
-        <v>54.74469373275195</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="M9" t="n">
-        <v>732.2102786755574</v>
+        <v>740.3049442308645</v>
       </c>
       <c r="N9" t="n">
-        <v>1409.675863618363</v>
+        <v>1401.144998772643</v>
       </c>
       <c r="O9" t="n">
-        <v>1409.675863618363</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1409.675863618363</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1717.984455211561</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1133.802854344633</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>961.2411428278582</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>795.3631500293809</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>625.6051462801182</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>448.8980922418745</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>283.3068172677021</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>143.4046429580766</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2649.986482340924</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2404.107035919379</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2357.414810959378</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2070.459302829808</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1798.4328984161</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1553.041143749512</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1325.62147306362</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1142.333694861421</v>
+        <v>2324.430227182454</v>
       </c>
       <c r="C11" t="n">
-        <v>1142.333694861421</v>
+        <v>1886.287754365877</v>
       </c>
       <c r="D11" t="n">
-        <v>1142.333694861421</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>1142.333694861421</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>745.2726796662719</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>343.8748482895357</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>158.3391458505872</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>835.8047307933927</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>835.8047307933927</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M11" t="n">
-        <v>835.8047307933927</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N11" t="n">
-        <v>835.8047307933927</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O11" t="n">
-        <v>1513.270315736198</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P11" t="n">
-        <v>2190.735900679003</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.234686637598</v>
+        <v>4345.630789443538</v>
       </c>
       <c r="V11" t="n">
-        <v>2374.617736571424</v>
+        <v>3983.013839377364</v>
       </c>
       <c r="W11" t="n">
-        <v>1969.762281982458</v>
+        <v>3578.158384788398</v>
       </c>
       <c r="X11" t="n">
-        <v>1550.619818561768</v>
+        <v>3159.015921367708</v>
       </c>
       <c r="Y11" t="n">
-        <v>1142.333694861421</v>
+        <v>2750.729797667362</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J12" t="n">
-        <v>379.3030186989643</v>
+        <v>418.328424285066</v>
       </c>
       <c r="K12" t="n">
-        <v>1056.76860364177</v>
+        <v>937.2866943184646</v>
       </c>
       <c r="L12" t="n">
-        <v>1056.76860364177</v>
+        <v>937.2866943184646</v>
       </c>
       <c r="M12" t="n">
-        <v>1056.76860364177</v>
+        <v>937.2866943184646</v>
       </c>
       <c r="N12" t="n">
-        <v>1056.76860364177</v>
+        <v>937.2866943184646</v>
       </c>
       <c r="O12" t="n">
-        <v>1056.76860364177</v>
+        <v>937.2866943184646</v>
       </c>
       <c r="P12" t="n">
-        <v>1177.245516579485</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q12" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1133.802854344633</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C13" t="n">
-        <v>961.2411428278582</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>795.3631500293809</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E13" t="n">
-        <v>625.6051462801182</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F13" t="n">
-        <v>448.8980922418745</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G13" t="n">
-        <v>283.3068172677021</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>143.4046429580766</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.524857214007</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U13" t="n">
-        <v>2357.414810959378</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V13" t="n">
-        <v>2070.459302829808</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W13" t="n">
-        <v>1798.4328984161</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X13" t="n">
-        <v>1553.041143749512</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y13" t="n">
-        <v>1325.62147306362</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>495.9668972495524</v>
+        <v>2324.430227182454</v>
       </c>
       <c r="C14" t="n">
-        <v>456.1425251094881</v>
+        <v>1886.287754365877</v>
       </c>
       <c r="D14" t="n">
-        <v>456.1425251094881</v>
+        <v>1450.377969540322</v>
       </c>
       <c r="E14" t="n">
-        <v>456.1425251094881</v>
+        <v>1016.603224698617</v>
       </c>
       <c r="F14" t="n">
-        <v>456.1425251094881</v>
+        <v>588.7357951078247</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>187.3379637310886</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>489.9993811856698</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K14" t="n">
-        <v>1167.464966128475</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L14" t="n">
-        <v>1844.930551071281</v>
+        <v>1168.830065571713</v>
       </c>
       <c r="M14" t="n">
-        <v>2021.581835925947</v>
+        <v>2325.877900782264</v>
       </c>
       <c r="N14" t="n">
-        <v>2021.581835925947</v>
+        <v>3451.608884218711</v>
       </c>
       <c r="O14" t="n">
-        <v>2021.581835925947</v>
+        <v>4431.788550789018</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.581835925947</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>2517.167459510636</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="U14" t="n">
-        <v>2517.167459510636</v>
+        <v>4345.630789443538</v>
       </c>
       <c r="V14" t="n">
-        <v>2154.550509444463</v>
+        <v>3983.013839377364</v>
       </c>
       <c r="W14" t="n">
-        <v>1749.695054855496</v>
+        <v>3578.158384788398</v>
       </c>
       <c r="X14" t="n">
-        <v>1330.552591434807</v>
+        <v>3159.015921367708</v>
       </c>
       <c r="Y14" t="n">
-        <v>922.2664677344602</v>
+        <v>2750.729797667362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>58.04882857612763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J15" t="n">
-        <v>382.60715354234</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K15" t="n">
-        <v>1060.072738485145</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L15" t="n">
-        <v>1060.072738485145</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M15" t="n">
-        <v>1060.072738485145</v>
+        <v>1254.175078389668</v>
       </c>
       <c r="N15" t="n">
-        <v>1060.072738485145</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="O15" t="n">
-        <v>1060.072738485145</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="P15" t="n">
-        <v>1060.072738485145</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1133.802854344633</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C16" t="n">
-        <v>961.2411428278582</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>795.3631500293809</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E16" t="n">
-        <v>625.6051462801182</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F16" t="n">
-        <v>448.8980922418745</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G16" t="n">
-        <v>283.3068172677021</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4046429580766</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.524857214007</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U16" t="n">
-        <v>2357.414810959378</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V16" t="n">
-        <v>2070.459302829808</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W16" t="n">
-        <v>1798.4328984161</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X16" t="n">
-        <v>1553.041143749512</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y16" t="n">
-        <v>1325.62147306362</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5543,22 +5545,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5600,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1407.425887208553</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
         <v>1221.073045167952</v>
@@ -5759,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5783,19 +5785,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2559.679081471576</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U22" t="n">
-        <v>2316.271008272081</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C24" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D24" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E24" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F24" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G24" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H24" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R24" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S24" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U24" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V24" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W24" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X24" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y24" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>949.5782250957668</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C25" t="n">
-        <v>777.0165135789917</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D25" t="n">
-        <v>611.1385207805145</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E25" t="n">
-        <v>441.3805170312517</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F25" t="n">
-        <v>264.6734629930079</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>5077.485521609701</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710511</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167233</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X25" t="n">
-        <v>1368.816514500646</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y25" t="n">
-        <v>1141.396843814754</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3205.876241053795</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>3033.31452953702</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>2867.436536738543</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>2697.67853298928</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>2520.971478951036</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>2496.382403636182</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>4953.800644836978</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>4707.921198415434</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U28" t="n">
-        <v>4429.488197668539</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V28" t="n">
-        <v>4142.53268953897</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>3870.506285125261</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>3625.114530458674</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>3397.694859772782</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6543,25 +6545,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>3477.902645467504</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>3305.340933950728</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>3139.462941152251</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>2969.704937402988</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>2792.997883364745</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>2627.406608390572</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>4953.800644836978</v>
       </c>
       <c r="T31" t="n">
-        <v>2594.704009018975</v>
+        <v>4707.921198415434</v>
       </c>
       <c r="U31" t="n">
-        <v>2316.271008272081</v>
+        <v>4429.488197668539</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>4142.53268953897</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>4142.53268953897</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>3897.140934872382</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>3669.721264186491</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6737,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883914</v>
+        <v>3365.117609755799</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716164</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731391</v>
+        <v>3026.677905440546</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238763</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856325</v>
+        <v>2680.21284765304</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>2514.621572678867</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I34" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J34" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K34" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L34" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M34" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N34" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O34" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P34" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>4029.747653827265</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>3784.355899160677</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>3556.936228474786</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,7 +6946,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423627</v>
@@ -7081,7 +7083,7 @@
         <v>303.5569696238763</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7160,37 +7162,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>1463.16863798718</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q38" t="n">
         <v>4943.887948785924</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>811.7546776883914</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>639.1929661716164</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>473.3149733731391</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>303.5569696238763</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1483.506529031654</v>
+        <v>2408.082100998617</v>
       </c>
       <c r="C41" t="n">
-        <v>1045.364056215078</v>
+        <v>1969.93962818204</v>
       </c>
       <c r="D41" t="n">
-        <v>609.4542713895221</v>
+        <v>1534.029843356485</v>
       </c>
       <c r="E41" t="n">
-        <v>175.6795265478173</v>
+        <v>1100.25509851478</v>
       </c>
       <c r="F41" t="n">
-        <v>54.74469373275195</v>
+        <v>672.3876689239878</v>
       </c>
       <c r="G41" t="n">
-        <v>54.74469373275195</v>
+        <v>270.9898375472517</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>489.9993811856698</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>1167.464966128475</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1167.464966128475</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>1844.930551071281</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>1844.930551071281</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>1844.930551071281</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>2190.735900679003</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V41" t="n">
-        <v>2737.234686637598</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W41" t="n">
-        <v>2737.234686637598</v>
+        <v>3661.810258604561</v>
       </c>
       <c r="X41" t="n">
-        <v>2318.092223216909</v>
+        <v>3242.667795183871</v>
       </c>
       <c r="Y41" t="n">
-        <v>1909.806099516562</v>
+        <v>2834.381671483525</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1133.802854344633</v>
+        <v>2759.921372162869</v>
       </c>
       <c r="C43" t="n">
-        <v>961.2411428278582</v>
+        <v>2587.359660646094</v>
       </c>
       <c r="D43" t="n">
-        <v>795.3631500293809</v>
+        <v>2421.481667847617</v>
       </c>
       <c r="E43" t="n">
-        <v>625.6051462801182</v>
+        <v>2251.723664098354</v>
       </c>
       <c r="F43" t="n">
-        <v>448.8980922418745</v>
+        <v>2075.01661006011</v>
       </c>
       <c r="G43" t="n">
-        <v>283.3068172677021</v>
+        <v>2071.845356039885</v>
       </c>
       <c r="H43" t="n">
-        <v>143.4046429580766</v>
+        <v>2071.845356039885</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>2071.845356039885</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>2158.425041204574</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>2433.183495775711</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>2851.393377543671</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>3310.877244724584</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>3753.136047882229</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>4172.80529710801</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>4520.312191078352</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R43" t="n">
-        <v>2649.986482340924</v>
+        <v>4667.087144648056</v>
       </c>
       <c r="S43" t="n">
-        <v>2490.74511363892</v>
+        <v>4507.845775946053</v>
       </c>
       <c r="T43" t="n">
-        <v>2490.74511363892</v>
+        <v>4261.966329524508</v>
       </c>
       <c r="U43" t="n">
-        <v>2357.414810959378</v>
+        <v>3983.533328777613</v>
       </c>
       <c r="V43" t="n">
-        <v>2070.459302829808</v>
+        <v>3696.577820648044</v>
       </c>
       <c r="W43" t="n">
-        <v>1798.4328984161</v>
+        <v>3424.551416234336</v>
       </c>
       <c r="X43" t="n">
-        <v>1553.041143749512</v>
+        <v>3179.159661567748</v>
       </c>
       <c r="Y43" t="n">
-        <v>1325.62147306362</v>
+        <v>2951.739990881857</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2318.092223216909</v>
+        <v>2447.237176554639</v>
       </c>
       <c r="C44" t="n">
-        <v>1879.949750400332</v>
+        <v>2009.094703738062</v>
       </c>
       <c r="D44" t="n">
-        <v>1444.039965574776</v>
+        <v>1573.184918912507</v>
       </c>
       <c r="E44" t="n">
-        <v>1010.265220733072</v>
+        <v>1139.410174070802</v>
       </c>
       <c r="F44" t="n">
-        <v>745.6894690391318</v>
+        <v>711.5427444800098</v>
       </c>
       <c r="G44" t="n">
-        <v>344.2916376623957</v>
+        <v>310.1449131032737</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>54.74469373275195</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>666.6506660403358</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>666.6506660403358</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>1344.116250983141</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="V44" t="n">
-        <v>2737.234686637598</v>
+        <v>4105.820788749549</v>
       </c>
       <c r="W44" t="n">
-        <v>2737.234686637598</v>
+        <v>3700.965334160583</v>
       </c>
       <c r="X44" t="n">
-        <v>2318.092223216909</v>
+        <v>3281.822870739893</v>
       </c>
       <c r="Y44" t="n">
-        <v>2318.092223216909</v>
+        <v>2873.536747039547</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>80.80836689320955</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>405.3666918594219</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>905.2407308096831</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C46" t="n">
-        <v>732.679019292908</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D46" t="n">
-        <v>566.8010264944307</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E46" t="n">
-        <v>397.0430227451681</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F46" t="n">
-        <v>220.3359687069243</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2653.165134592867</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2407.285688171322</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2128.852687424428</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>1841.897179294858</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W46" t="n">
-        <v>1569.87077488115</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1324.479020214562</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.05934952867</v>
+        <v>973.664734160825</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4356412673392</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>304.8472592415462</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>17.17305800913118</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.1459453236921</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>684.3086716593994</v>
+        <v>566.3319231075541</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>121.6938514522378</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>46.1459453236921</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593994</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8538,22 +8540,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>104.6408607250861</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,13 +8701,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8769,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>684.3086716593994</v>
+        <v>524.2002727610086</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>121.6938514522378</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593994</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>178.4356412673392</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>259.3095102562284</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,22 +9002,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.33750994280372</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>507.9139216242372</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,10 +9248,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>243.3352893400963</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10355,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10838,10 +10840,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -11060,22 +11062,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
-        <v>349.2983329370936</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>618.0868407147311</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>194.0192887222346</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>30.49835025168625</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473423</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>394.3349196697473</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>194.0192887222347</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473423</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U22" t="n">
-        <v>34.67467827192567</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>141.6500182959539</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.4233680290237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>8.789189859682921</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,10 +25323,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
         <v>139.5921776627262</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25558,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>141.6500182959537</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>303.8632708079697</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>111.2039336442333</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,13 +25684,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>160.7958207444072</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>143.6516710866782</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>161.658761117884</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>72.02778736464012</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25918,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>160.7958207444077</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>660363.2815052317</v>
+        <v>659701.6529083931</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>660363.2815052317</v>
+        <v>659701.6529083931</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>660363.2815052317</v>
+        <v>659701.6529083931</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>438679.6284852602</v>
+        <v>631195.0820292087</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>438679.6284852602</v>
+        <v>631195.0820292087</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>673080.5876565053</v>
+        <v>673080.5876565054</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673080.5876565052</v>
+        <v>673080.5876565054</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>438679.6284852602</v>
+        <v>631195.0820292088</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>438679.6284852602</v>
+        <v>631195.0820292087</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26322,16 @@
         <v>321688.391934245</v>
       </c>
       <c r="E2" t="n">
-        <v>206027.355575999</v>
+        <v>296442.8825931296</v>
       </c>
       <c r="F2" t="n">
-        <v>206027.355575999</v>
+        <v>296442.8825931295</v>
       </c>
       <c r="G2" t="n">
+        <v>316114.5504824114</v>
+      </c>
+      <c r="H2" t="n">
         <v>316114.5504824113</v>
-      </c>
-      <c r="H2" t="n">
-        <v>316114.5504824114</v>
       </c>
       <c r="I2" t="n">
         <v>316114.5504824113</v>
@@ -26350,10 +26352,10 @@
         <v>316114.5504824113</v>
       </c>
       <c r="O2" t="n">
-        <v>206027.3555759991</v>
+        <v>296442.8825931295</v>
       </c>
       <c r="P2" t="n">
-        <v>206027.355575999</v>
+        <v>296442.8825931295</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>154345.2424604725</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="C4" t="n">
-        <v>154345.2424604725</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>154345.2424604725</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>44319.38999483707</v>
+        <v>63769.0450770855</v>
       </c>
       <c r="F4" t="n">
-        <v>44319.38999483707</v>
+        <v>63769.04507708549</v>
       </c>
       <c r="G4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="I4" t="n">
         <v>68000.69828933281</v>
@@ -26448,16 +26450,16 @@
         <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="N4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="O4" t="n">
-        <v>44319.38999483707</v>
+        <v>63769.04507708549</v>
       </c>
       <c r="P4" t="n">
-        <v>44319.38999483707</v>
+        <v>63769.04507708549</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-137217.9927356319</v>
+        <v>-132860.4724642314</v>
       </c>
       <c r="C6" t="n">
-        <v>92109.58223688102</v>
+        <v>90839.22611981345</v>
       </c>
       <c r="D6" t="n">
-        <v>92109.58223688108</v>
+        <v>90839.22611981345</v>
       </c>
       <c r="E6" t="n">
-        <v>120101.9983442705</v>
+        <v>10742.80846196738</v>
       </c>
       <c r="F6" t="n">
-        <v>120101.9983442705</v>
+        <v>161408.5620337153</v>
       </c>
       <c r="G6" t="n">
-        <v>7602.325788844566</v>
+        <v>141305.8044146783</v>
       </c>
       <c r="H6" t="n">
-        <v>170395.6135872861</v>
+        <v>170395.613587286</v>
       </c>
       <c r="I6" t="n">
         <v>170395.613587286</v>
       </c>
       <c r="J6" t="n">
-        <v>-8649.644500365903</v>
+        <v>-4255.735130420115</v>
       </c>
       <c r="K6" t="n">
         <v>170395.613587286</v>
@@ -26552,16 +26554,16 @@
         <v>170395.613587286</v>
       </c>
       <c r="M6" t="n">
-        <v>170395.613587286</v>
+        <v>44644.5252515953</v>
       </c>
       <c r="N6" t="n">
         <v>170395.613587286</v>
       </c>
       <c r="O6" t="n">
-        <v>120101.9983442705</v>
+        <v>161408.5620337153</v>
       </c>
       <c r="P6" t="n">
-        <v>120101.9983442705</v>
+        <v>161408.5620337152</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.6110348778139</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778139</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778139</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>81.52750627225049</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27391,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>83.52887324140016</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>229.4233680290254</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>143.6516710866795</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>203.1063861507132</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>185.4631102447384</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.4463752142712</v>
+        <v>44.0719158343768</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>261.0448044795276</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>185.8757317238698</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28061,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>229.4233680290242</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4356412673392</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>304.8472592415462</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>17.17305800913118</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34863,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L5" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>46.1459453236921</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>684.3086716593994</v>
+        <v>566.3319231075541</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>121.6938514522378</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>46.1459453236921</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>684.3086716593994</v>
+        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -35258,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>684.3086716593995</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>684.3086716593996</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>104.6408607250861</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593995</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,13 +35421,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="O11" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35489,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>684.3086716593994</v>
+        <v>524.2002727610086</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>121.6938514522378</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35576,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>684.3086716593994</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>178.4356412673392</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>259.3095102562284</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.33750994280372</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>507.9139216242372</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,10 +35746,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35813,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35966,10 +35968,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>243.3352893400963</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -37558,10 +37560,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37780,22 +37782,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
-        <v>349.2983329370936</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960968</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>618.0868407147311</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38183,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>728644.9603906235</v>
+        <v>728038.8727617265</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797151</v>
+        <v>606553.2040797153</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>313.8549798215686</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>184.515494921068</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -724,10 +724,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -825,13 +825,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>119.8634463900533</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -870,7 +870,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -882,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>99.28616603324218</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -901,10 +901,10 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>284.8511015330232</v>
       </c>
       <c r="E5" t="n">
-        <v>243.9738871485494</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145.8285166974204</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1062,16 +1062,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1141,16 +1141,16 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>243.561265669418</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>27.20350533122125</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>3.13954148002296</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1375,7 +1375,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>237.5313982550653</v>
+        <v>276.7075445346584</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1390,7 +1390,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1539,13 +1539,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>111.5098183264947</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1618,13 +1618,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>11.70291171695784</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>92.21956428898119</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1660,7 +1660,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1779,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>94.21878984361696</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>24.34318456170439</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>13.99728392830552</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>61.2328428747578</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>129.7139627068463</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
@@ -3009,10 +3009,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225841</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>141.7246276011661</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3672,7 +3672,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3681,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3720,7 +3720,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>142.4359347523201</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>13.0131344328856</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>175.0349193669826</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>203.7350166437391</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480023404</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3994,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>214.2110656465758</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>289.6029663988438</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4137,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>10.0402736571996</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>489.9592645846402</v>
+        <v>1674.602188492497</v>
       </c>
       <c r="C2" t="n">
-        <v>455.8571958084675</v>
+        <v>1236.459715675921</v>
       </c>
       <c r="D2" t="n">
-        <v>423.9878150233161</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E2" t="n">
-        <v>394.2534742220153</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>370.4264486716271</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4333,22 +4333,22 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362198</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q2" t="n">
         <v>2500.906761678371</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488303</v>
+        <v>2483.681538632369</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.11942280532</v>
+        <v>2483.681538632369</v>
       </c>
       <c r="V2" t="n">
-        <v>1744.502472739146</v>
+        <v>2121.064588566196</v>
       </c>
       <c r="W2" t="n">
-        <v>1339.64701815018</v>
+        <v>1716.209133977229</v>
       </c>
       <c r="X2" t="n">
-        <v>920.5045547294905</v>
+        <v>1701.107074596944</v>
       </c>
       <c r="Y2" t="n">
-        <v>512.2184310291439</v>
+        <v>1696.861354937001</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
-        <v>1699.639650578398</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1699.639650578398</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G4" t="n">
         <v>281.9633400635787</v>
@@ -4518,22 +4518,22 @@
         <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2489.401636434796</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>2210.968635687901</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1924.013127558332</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1651.986723144624</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>389.6379614873604</v>
+        <v>428.7930370433824</v>
       </c>
       <c r="C5" t="n">
-        <v>355.5358927111877</v>
+        <v>394.6909682672097</v>
       </c>
       <c r="D5" t="n">
-        <v>323.6665119260363</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
         <v>77.22824207901677</v>
@@ -4570,25 +4570,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M5" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2410.838523748444</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.221573682271</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W5" t="n">
-        <v>1643.366119093304</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X5" t="n">
-        <v>1224.223655672615</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="Y5" t="n">
-        <v>815.9375319722682</v>
+        <v>855.0926075282902</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>785.9943193530034</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>613.4326078362284</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>447.554615037751</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>447.554615037751</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>793.6783655277644</v>
+        <v>489.9592645846402</v>
       </c>
       <c r="C8" t="n">
-        <v>759.5762967515918</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D8" t="n">
-        <v>727.7069159664404</v>
+        <v>423.9878150233161</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>394.2534742220153</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>370.4264486716271</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4807,49 +4807,49 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>714.2412710704069</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>1375.081325612185</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>1375.081325612185</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>1375.081325612185</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2410.838523748444</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.221573682271</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1643.366119093304</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1224.223655672615</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>815.9375319722682</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>79.46488968908616</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>740.3049442308645</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1401.144998772643</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870976</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>56.57247054885377</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2324.430227182454</v>
+        <v>2363.585302738476</v>
       </c>
       <c r="C11" t="n">
-        <v>1886.287754365877</v>
+        <v>1925.442829921899</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.357049057731</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E11" t="n">
-        <v>1212.582304216026</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F11" t="n">
-        <v>784.7148746252335</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G11" t="n">
-        <v>383.3170432484974</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171368</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I11" t="n">
         <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>529.0247867717716</v>
+        <v>424.1063803693496</v>
       </c>
       <c r="K11" t="n">
-        <v>1363.37507872995</v>
+        <v>1258.456672327527</v>
       </c>
       <c r="L11" t="n">
-        <v>1363.37507872995</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M11" t="n">
-        <v>1363.37507872995</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N11" t="n">
         <v>2333.516638580387</v>
@@ -5071,22 +5071,22 @@
         <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4604.853092126521</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4345.630789443538</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="V11" t="n">
-        <v>3983.013839377364</v>
+        <v>4022.168914933386</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.158384788398</v>
+        <v>3617.31346034442</v>
       </c>
       <c r="X11" t="n">
-        <v>3159.015921367708</v>
+        <v>3198.17099692373</v>
       </c>
       <c r="Y11" t="n">
-        <v>2750.729797667362</v>
+        <v>2789.884873223384</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>418.328424285066</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>937.2866943184646</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>937.2866943184646</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>937.2866943184646</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>937.2866943184646</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>937.2866943184646</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
         <v>1757.009860797663</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1172.828259930735</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C13" t="n">
-        <v>1000.26654841396</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D13" t="n">
-        <v>834.3885556154828</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E13" t="n">
-        <v>664.63055186622</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F13" t="n">
-        <v>487.9234978279762</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="G13" t="n">
-        <v>322.3322228538038</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="H13" t="n">
         <v>182.4300485441784</v>
@@ -5226,25 +5226,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2710.429709221653</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2464.550262800109</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>2396.440216545479</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>2109.48470841591</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W13" t="n">
-        <v>1837.458304002202</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X13" t="n">
-        <v>1592.066549335614</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y13" t="n">
-        <v>1364.646878649722</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2324.430227182454</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C14" t="n">
-        <v>1886.287754365877</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D14" t="n">
-        <v>1450.377969540322</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E14" t="n">
-        <v>1016.603224698617</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F14" t="n">
-        <v>588.7357951078247</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>187.3379637310886</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
         <v>94.18688869171368</v>
@@ -5278,25 +5278,25 @@
         <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>93.77009931885368</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>93.77009931885368</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.830065571713</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M14" t="n">
-        <v>2325.877900782264</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N14" t="n">
-        <v>3451.608884218711</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O14" t="n">
-        <v>4431.788550789018</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>4688.504965942684</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
         <v>4688.504965942684</v>
@@ -5308,22 +5308,22 @@
         <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>4604.853092126521</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U14" t="n">
-        <v>4345.630789443538</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V14" t="n">
-        <v>3983.013839377364</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.158384788398</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X14" t="n">
-        <v>3159.015921367708</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y14" t="n">
-        <v>2750.729797667362</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1254.175078389668</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1757.009860797663</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1757.009860797663</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
         <v>1757.009860797663</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1172.828259930735</v>
+        <v>867.3348106469373</v>
       </c>
       <c r="C16" t="n">
-        <v>1000.26654841396</v>
+        <v>694.7730991301622</v>
       </c>
       <c r="D16" t="n">
-        <v>834.3885556154828</v>
+        <v>528.8951063316849</v>
       </c>
       <c r="E16" t="n">
-        <v>664.63055186622</v>
+        <v>359.1371025824221</v>
       </c>
       <c r="F16" t="n">
-        <v>487.9234978279762</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="G16" t="n">
-        <v>322.3322228538038</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="H16" t="n">
         <v>182.4300485441784</v>
@@ -5463,25 +5463,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2710.429709221653</v>
+        <v>2615.259214430121</v>
       </c>
       <c r="T16" t="n">
-        <v>2464.550262800109</v>
+        <v>2369.379768008576</v>
       </c>
       <c r="U16" t="n">
-        <v>2396.440216545479</v>
+        <v>2090.946767261682</v>
       </c>
       <c r="V16" t="n">
-        <v>2109.48470841591</v>
+        <v>1803.991259132112</v>
       </c>
       <c r="W16" t="n">
-        <v>1837.458304002202</v>
+        <v>1531.964854718404</v>
       </c>
       <c r="X16" t="n">
-        <v>1592.066549335614</v>
+        <v>1286.573100051816</v>
       </c>
       <c r="Y16" t="n">
-        <v>1364.646878649722</v>
+        <v>1059.153429365924</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5524,43 +5524,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5597,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5664,7 +5664,7 @@
         <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5779,10 +5779,10 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3575.440564248063</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>3402.878852731288</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>3237.000859932811</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>3067.242856183548</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>2890.535802145304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5091.624192244353</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>5077.485521609701</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>4799.052520862807</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>4512.097012733238</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>4240.070608319529</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>3994.678853652942</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>3767.25918296705</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6235,7 +6235,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6414,22 +6414,22 @@
         <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2683.3639582443</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3477.902645467504</v>
+        <v>1077.292364523333</v>
       </c>
       <c r="C31" t="n">
-        <v>3305.340933950728</v>
+        <v>904.7306530065579</v>
       </c>
       <c r="D31" t="n">
-        <v>3139.462941152251</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>2969.704937402988</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>2792.997883364745</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>2627.406608390572</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>4953.800644836978</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>4707.921198415434</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>4429.488197668539</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>4142.53268953897</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W31" t="n">
-        <v>4142.53268953897</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X31" t="n">
-        <v>3897.140934872382</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y31" t="n">
-        <v>3669.721264186491</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6739,13 +6739,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3365.117609755799</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>3192.555898239023</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>3026.677905440546</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>2856.919901691283</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>2680.21284765304</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>2514.621572678867</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>5113.042013538981</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>4867.162567117437</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>4588.729566370543</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>4301.774058240973</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>4029.747653827265</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>3784.355899160677</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>3556.936228474786</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883914</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716164</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D37" t="n">
-        <v>473.3149733731391</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E37" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,25 +7177,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O38" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>1004.611946844417</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>1196.430565563404</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2408.082100998617</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
-        <v>1969.93962818204</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1534.029843356485</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>1100.25509851478</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>672.3876689239878</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>270.9898375472517</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
         <v>94.18688869171368</v>
@@ -7417,13 +7417,13 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M41" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N41" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O41" t="n">
         <v>3313.696305150693</v>
@@ -7438,25 +7438,25 @@
         <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4688.504965942684</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>4688.504965942684</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>4429.282663259701</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="V41" t="n">
-        <v>4066.665713193527</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W41" t="n">
-        <v>3661.810258604561</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X41" t="n">
-        <v>3242.667795183871</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2834.381671483525</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2759.921372162869</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C43" t="n">
-        <v>2587.359660646094</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D43" t="n">
-        <v>2421.481667847617</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E43" t="n">
-        <v>2251.723664098354</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F43" t="n">
-        <v>2075.01661006011</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>2071.845356039885</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>2071.845356039885</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>2071.845356039885</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>2158.425041204574</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>2433.183495775711</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>2851.393377543671</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>3310.877244724584</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>3753.136047882229</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>4172.80529710801</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>4520.312191078352</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>4688.504965942684</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>4667.087144648056</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.845775946053</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>4261.966329524508</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>3983.533328777613</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>3696.577820648044</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>3424.551416234336</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>3179.159661567748</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>2951.739990881857</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2447.237176554639</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>2009.094703738062</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>1573.184918912507</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>1139.410174070802</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>711.5427444800098</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>310.1449131032737</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
         <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>529.0247867717716</v>
+        <v>424.1063803693496</v>
       </c>
       <c r="K44" t="n">
-        <v>1363.37507872995</v>
+        <v>1258.456672327527</v>
       </c>
       <c r="L44" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M44" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N44" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O44" t="n">
         <v>3313.696305150693</v>
@@ -7678,22 +7678,22 @@
         <v>4688.504965942684</v>
       </c>
       <c r="T44" t="n">
-        <v>4468.437738815723</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U44" t="n">
-        <v>4468.437738815723</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V44" t="n">
-        <v>4105.820788749549</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W44" t="n">
-        <v>3700.965334160583</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X44" t="n">
-        <v>3281.822870739893</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2873.536747039547</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>781.8461154418378</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C46" t="n">
-        <v>771.7044248790099</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>605.8264320805326</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E46" t="n">
-        <v>436.0684283312698</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F46" t="n">
-        <v>259.361374293026</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G46" t="n">
-        <v>93.77009931885368</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>93.77009931885368</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I46" t="n">
         <v>93.77009931885368</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2529.770519225022</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T46" t="n">
-        <v>2283.891072803477</v>
+        <v>2674.873217292374</v>
       </c>
       <c r="U46" t="n">
-        <v>2005.458072056582</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V46" t="n">
-        <v>1718.502563927013</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W46" t="n">
-        <v>1446.476159513304</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X46" t="n">
-        <v>1201.084404846717</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y46" t="n">
-        <v>973.664734160825</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
   </sheetData>
@@ -7981,13 +7981,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>469.6822035600078</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7996,10 +7996,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>17.17305800913118</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,10 +8218,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>566.3319231075541</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8455,19 +8455,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,28 +8531,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>979.9409695458962</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>524.2002727610086</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>259.3095102562284</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>507.9139216242372</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10837,16 +10837,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>884.1022829978629</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>884.1022829978629</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>194.0192887222346</v>
+        <v>154.8431424426415</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>26.99333424003453</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>411.8858435779265</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>194.0192887222347</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>63.43016517136634</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627262</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>114.1599680048248</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>229.4233680290237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.9863699957347</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>8.789189859682921</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142708</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>48.17580493063116</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>141.6500182959537</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>212.1323395461472</v>
       </c>
     </row>
     <row r="41">
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>111.2039336442333</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>52.89506301241414</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444072</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>72.02778736464012</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>111.2039336442332</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>160.7958207444077</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631195.0820292087</v>
+        <v>631195.0820292085</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>673080.5876565054</v>
+        <v>673080.5876565052</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>673080.5876565054</v>
+        <v>673080.5876565055</v>
       </c>
     </row>
     <row r="14">
@@ -26325,10 +26325,10 @@
         <v>296442.8825931296</v>
       </c>
       <c r="F2" t="n">
-        <v>296442.8825931295</v>
+        <v>296442.8825931296</v>
       </c>
       <c r="G2" t="n">
-        <v>316114.5504824114</v>
+        <v>316114.5504824113</v>
       </c>
       <c r="H2" t="n">
         <v>316114.5504824113</v>
@@ -26349,7 +26349,7 @@
         <v>316114.5504824113</v>
       </c>
       <c r="N2" t="n">
-        <v>316114.5504824113</v>
+        <v>316114.5504824112</v>
       </c>
       <c r="O2" t="n">
         <v>296442.8825931295</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717479</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356907</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,13 +26429,13 @@
         <v>63769.0450770855</v>
       </c>
       <c r="F4" t="n">
-        <v>63769.04507708549</v>
+        <v>63769.0450770855</v>
       </c>
       <c r="G4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="I4" t="n">
         <v>68000.69828933281</v>
@@ -26444,7 +26444,7 @@
         <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="L4" t="n">
         <v>68000.69828933281</v>
@@ -26453,13 +26453,13 @@
         <v>68000.69828933279</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="O4" t="n">
         <v>63769.04507708549</v>
       </c>
       <c r="P4" t="n">
-        <v>63769.04507708549</v>
+        <v>63769.0450770855</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-132860.4724642314</v>
       </c>
       <c r="C6" t="n">
-        <v>90839.22611981345</v>
+        <v>90839.22611981349</v>
       </c>
       <c r="D6" t="n">
-        <v>90839.22611981345</v>
+        <v>90839.22611981344</v>
       </c>
       <c r="E6" t="n">
-        <v>10742.80846196738</v>
+        <v>10637.61883971267</v>
       </c>
       <c r="F6" t="n">
-        <v>161408.5620337153</v>
+        <v>161303.3724114607</v>
       </c>
       <c r="G6" t="n">
-        <v>141305.8044146783</v>
+        <v>141282.5800752956</v>
       </c>
       <c r="H6" t="n">
-        <v>170395.613587286</v>
+        <v>170372.3892479034</v>
       </c>
       <c r="I6" t="n">
-        <v>170395.613587286</v>
+        <v>170372.3892479033</v>
       </c>
       <c r="J6" t="n">
-        <v>-4255.735130420115</v>
+        <v>-4278.959469802813</v>
       </c>
       <c r="K6" t="n">
-        <v>170395.613587286</v>
+        <v>170372.3892479034</v>
       </c>
       <c r="L6" t="n">
-        <v>170395.613587286</v>
+        <v>170372.3892479033</v>
       </c>
       <c r="M6" t="n">
-        <v>44644.5252515953</v>
+        <v>44621.30091221254</v>
       </c>
       <c r="N6" t="n">
-        <v>170395.613587286</v>
+        <v>170372.3892479033</v>
       </c>
       <c r="O6" t="n">
-        <v>161408.5620337153</v>
+        <v>161303.3724114606</v>
       </c>
       <c r="P6" t="n">
-        <v>161408.5620337152</v>
+        <v>161303.3724114606</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778139</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778139</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778139</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,73 +27381,73 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>397.3838530629687</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>82.81535507800136</v>
+      </c>
+      <c r="T2" t="n">
+        <v>33.35105993462375</v>
+      </c>
+      <c r="U2" t="n">
+        <v>256.6300796561533</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>400</v>
       </c>
-      <c r="F2" t="n">
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>83.52887324140016</v>
-      </c>
-      <c r="H2" t="n">
-        <v>286.2388530112159</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.4126214791313976</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>48.19697732171677</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>143.6516710866795</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,10 +27621,10 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>146.6995854442767</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>185.4631102447384</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27669,10 +27669,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.0719158343768</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27861,16 +27861,16 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>185.8757317238698</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>370.1803477317475</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34701,13 +34701,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>469.6822035600078</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34716,10 +34716,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>17.17305800913118</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>566.3319231075541</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>667.5152066078568</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>88.52591951400996</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35196,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>979.9409695458962</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>524.2002727610086</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>259.3095102562284</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>507.9139216242372</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36457,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37329,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>-7.351962456398325e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37554,19 +37554,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>884.1022829978629</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960968</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37952,13 +37952,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>333.6730111621171</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38031,7 +38031,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>884.1022829978629</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
